--- a/names.xlsx
+++ b/names.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09d30b2c7a80190e/Documents/certiprinting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artik\OneDrive\Documents\certiprinting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD628E8E-1590-4E15-8F1F-0AE4127843A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{CD628E8E-1590-4E15-8F1F-0AE4127843A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ACE9EC94-97AE-4F64-9431-54F4A663D09C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EDCE2EAC-B7BC-4E11-8CA5-F9DD35C823BB}"/>
   </bookViews>
@@ -39,34 +39,34 @@
     <t>Field</t>
   </si>
   <si>
-    <t>Artik Bharoliya</t>
-  </si>
-  <si>
     <t>Zodiac</t>
   </si>
   <si>
-    <t>Jemish Dungarani</t>
-  </si>
-  <si>
     <t>Logo Design</t>
   </si>
   <si>
-    <t>Harshit Lakhani</t>
-  </si>
-  <si>
     <t>Model Presentation</t>
   </si>
   <si>
-    <t>Kishan Bhanderi</t>
-  </si>
-  <si>
     <t>Web hunter</t>
   </si>
   <si>
-    <t>Utav Bhungaliya</t>
-  </si>
-  <si>
-    <t>Kai nai</t>
+    <t>aksjbd</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>efgh</t>
+  </si>
+  <si>
+    <t>ijkl</t>
+  </si>
+  <si>
+    <t>mnop</t>
+  </si>
+  <si>
+    <t>qrst</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,42 +449,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
